--- a/public/DataDosen/pengajuan.xlsx
+++ b/public/DataDosen/pengajuan.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
